--- a/180000-200000.xlsx
+++ b/180000-200000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -53,6 +59,18 @@
   </si>
   <si>
     <t>BPO Løn og HR</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Pris</t>
   </si>
   <si>
     <t>180000-200000</t>
@@ -417,13 +435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,10 +460,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -454,18 +478,21 @@
         <v>180204.78</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
         <v>44259</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -474,18 +501,21 @@
         <v>195393.13</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>44587</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -494,18 +524,21 @@
         <v>186313</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>44895</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -514,13 +547,16 @@
         <v>199392.4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>44950</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/180000-200000.xlsx
+++ b/180000-200000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>16049441</t>
   </si>
   <si>
+    <t>21367087</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>BPO Løn og HR</t>
   </si>
   <si>
+    <t>Visma Løn</t>
+  </si>
+  <si>
     <t>Strategisk beslutning</t>
   </si>
   <si>
@@ -70,7 +79,19 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
-    <t>Pris</t>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
   </si>
   <si>
     <t>180000-200000</t>
@@ -435,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,10 +487,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -478,21 +502,24 @@
         <v>180204.78</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>44259</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2022</v>
@@ -501,21 +528,24 @@
         <v>195393.13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>44587</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -524,21 +554,24 @@
         <v>186313</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>44895</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2023</v>
@@ -547,16 +580,39 @@
         <v>199392.4</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2">
         <v>44950</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6">
+        <v>193200.15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/180000-200000.xlsx
+++ b/180000-200000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>CVR</t>
   </si>
@@ -58,6 +58,15 @@
     <t>21367087</t>
   </si>
   <si>
+    <t>20246693</t>
+  </si>
+  <si>
+    <t>15223332</t>
+  </si>
+  <si>
+    <t>43268570</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>Visma Løn</t>
   </si>
   <si>
+    <t>BPO Løn &amp; HR</t>
+  </si>
+  <si>
     <t>Strategisk beslutning</t>
   </si>
   <si>
@@ -79,6 +91,9 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
+    <t>Lessor</t>
+  </si>
+  <si>
     <t>2021Q1</t>
   </si>
   <si>
@@ -92,6 +107,12 @@
   </si>
   <si>
     <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>180000-200000</t>
@@ -456,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,19 +523,19 @@
         <v>180204.78</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>44259</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -528,19 +549,19 @@
         <v>195393.13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>44587</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -554,19 +575,19 @@
         <v>186313</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>44895</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -580,16 +601,16 @@
         <v>199392.4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>44950</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -603,16 +624,88 @@
         <v>193200.15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>45103</v>
       </c>
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2024</v>
+      </c>
+      <c r="C7">
+        <v>186200</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45373</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>26</v>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8">
+        <v>191400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45476</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2024</v>
+      </c>
+      <c r="C9">
+        <v>193860</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/180000-200000.xlsx
+++ b/180000-200000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>CVR</t>
   </si>
@@ -58,6 +58,9 @@
     <t>21367087</t>
   </si>
   <si>
+    <t>1298664823</t>
+  </si>
+  <si>
     <t>20246693</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>Visma Løn</t>
   </si>
   <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
     <t>BPO Løn &amp; HR</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
   </si>
   <si>
+    <t>Visma Enterprise AB</t>
+  </si>
+  <si>
     <t>Lessor</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
   </si>
   <si>
     <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
   </si>
   <si>
     <t>2024Q1</t>
@@ -477,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,19 +535,19 @@
         <v>180204.78</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>44259</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -549,19 +561,19 @@
         <v>195393.13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>44587</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -575,19 +587,19 @@
         <v>186313</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>44895</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -601,16 +613,16 @@
         <v>199392.4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>44950</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -624,16 +636,16 @@
         <v>193200.15</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>45103</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -644,22 +656,22 @@
         <v>2024</v>
       </c>
       <c r="C7">
-        <v>186200</v>
+        <v>190188</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2">
-        <v>45373</v>
+        <v>45442</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -670,19 +682,22 @@
         <v>2024</v>
       </c>
       <c r="C8">
-        <v>191400</v>
+        <v>186200</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
-        <v>45476</v>
+        <v>45373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -693,19 +708,42 @@
         <v>2024</v>
       </c>
       <c r="C9">
+        <v>191400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45476</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10">
         <v>193860</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
         <v>45526</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
